--- a/ist659/models/Publisher.xlsx
+++ b/ist659/models/Publisher.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ed3132d36407930/Courses/Syracuse/2020/01-Spring/659/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HQRGRS27\source\git\SU\iSchool\ist659\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F5939F2-AFE3-4AB3-B083-F3E485BD37EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498EEA9-6BD2-4D29-826E-A07B3464AB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="915" windowWidth="21600" windowHeight="13350" xr2:uid="{1467BBB3-3DF7-4943-925E-825FEB63ACF3}"/>
+    <workbookView xWindow="-27270" yWindow="-330" windowWidth="27750" windowHeight="15330" xr2:uid="{1467BBB3-3DF7-4943-925E-825FEB63ACF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Publisher</t>
   </si>
@@ -84,13 +84,43 @@
   </si>
   <si>
     <t>Royalty Rate</t>
+  </si>
+  <si>
+    <t>BookAuthorID</t>
+  </si>
+  <si>
+    <t>RoyaltyCheck</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>RoyaltyCheckPerAuthor</t>
+  </si>
+  <si>
+    <t>Sales Amount</t>
+  </si>
+  <si>
+    <t>Royalty Amounts</t>
+  </si>
+  <si>
+    <t>Author Book ID</t>
+  </si>
+  <si>
+    <t>Royalty Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +130,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,18 +179,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8A7A3-F7C6-4382-AAFC-76796D012A00}">
-  <dimension ref="B3:D22"/>
+  <dimension ref="B3:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +519,7 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -575,53 +618,205 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
         <v>12345</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
         <v>23456</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
         <v>23456</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C27">
+        <v>12345</v>
+      </c>
+      <c r="D27" s="7">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="7">
+        <f>D27*E20</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C28">
+        <v>23456</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11</v>
+      </c>
+      <c r="E28" s="8">
+        <f>D28*E21</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F28" s="8">
+        <f>D28*E22</f>
+        <v>0.32999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <f>D27*E20</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8">
+        <f>D28*E21</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
+        <f>D28*E22</f>
+        <v>0.32999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <f>SUM(D32:D33)</f>
+        <v>600.54999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>43831</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8">
+        <f>D34</f>
+        <v>0.32999999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/ist659/models/Publisher.xlsx
+++ b/ist659/models/Publisher.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HQRGRS27\source\git\SU\iSchool\ist659\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0498EEA9-6BD2-4D29-826E-A07B3464AB75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544FFA0-2CA3-4561-8D14-39B8D9F123DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27270" yWindow="-330" windowWidth="27750" windowHeight="15330" xr2:uid="{1467BBB3-3DF7-4943-925E-825FEB63ACF3}"/>
+    <workbookView xWindow="-28065" yWindow="735" windowWidth="26520" windowHeight="14175" xr2:uid="{1467BBB3-3DF7-4943-925E-825FEB63ACF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Publisher</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Royalty Amount</t>
+  </si>
+  <si>
+    <t>RoyaltyCheckID</t>
+  </si>
+  <si>
+    <t>SalesID</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +149,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +190,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,11 +205,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -193,9 +220,12 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8A7A3-F7C6-4382-AAFC-76796D012A00}">
-  <dimension ref="B3:F39"/>
+  <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +553,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -552,7 +582,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -563,7 +593,7 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -590,7 +620,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -618,26 +648,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -651,7 +681,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -665,7 +695,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3</v>
       </c>
@@ -679,123 +709,144 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
         <v>43831</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>12345</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27" s="7">
         <v>5000</v>
       </c>
-      <c r="E27" s="7">
-        <f>D27*E20</f>
+      <c r="F27" s="7">
+        <f>E27*E20</f>
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
         <v>43831</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>23456</v>
       </c>
-      <c r="D28" s="7">
+      <c r="E28" s="7">
         <v>11</v>
       </c>
-      <c r="E28" s="8">
-        <f>D28*E21</f>
+      <c r="F28" s="8">
+        <f>E28*E21</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="F28" s="8">
-        <f>D28*E22</f>
+      <c r="G28" s="8">
+        <f>E28*E22</f>
         <v>0.32999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
         <v>43831</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <f>D27*E20</f>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <f>E27*E20</f>
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6">
         <v>43831</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="8">
-        <f>D28*E21</f>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" s="8">
+        <f>E28*E21</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6">
         <v>43831</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="D34" s="8">
-        <f>D28*E22</f>
+      <c r="E34" s="8">
+        <f>E28*E22</f>
         <v>0.32999999999999996</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>43831</v>
       </c>
@@ -803,11 +854,11 @@
         <v>1</v>
       </c>
       <c r="D38" s="8">
-        <f>SUM(D32:D33)</f>
+        <f>SUM(E32:E33)</f>
         <v>600.54999999999995</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>43831</v>
       </c>
@@ -815,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="8">
-        <f>D34</f>
+        <f>E34</f>
         <v>0.32999999999999996</v>
       </c>
     </row>

--- a/ist659/models/Publisher.xlsx
+++ b/ist659/models/Publisher.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HQRGRS27\source\git\SU\iSchool\ist659\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7544FFA0-2CA3-4561-8D14-39B8D9F123DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A6F01AA-F33E-49E0-BBEA-AC6B82CD367D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28065" yWindow="735" windowWidth="26520" windowHeight="14175" xr2:uid="{1467BBB3-3DF7-4943-925E-825FEB63ACF3}"/>
+    <workbookView xWindow="-27630" yWindow="210" windowWidth="25500" windowHeight="15180" xr2:uid="{1467BBB3-3DF7-4943-925E-825FEB63ACF3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Publisher" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Publisher</t>
   </si>
@@ -44,39 +44,21 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Publisher 1</t>
-  </si>
-  <si>
-    <t>Publisher 2</t>
-  </si>
-  <si>
     <t>Book</t>
   </si>
   <si>
     <t>ISBN</t>
   </si>
   <si>
-    <t>Book 1</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Book 2</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
     <t>Author ID</t>
   </si>
   <si>
-    <t>Author 2</t>
-  </si>
-  <si>
-    <t>Author 1</t>
-  </si>
-  <si>
     <t>BookAuthor</t>
   </si>
   <si>
@@ -98,9 +80,6 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>RoyaltyCheckPerAuthor</t>
-  </si>
-  <si>
     <t>Sales Amount</t>
   </si>
   <si>
@@ -117,6 +96,39 @@
   </si>
   <si>
     <t>SalesID</t>
+  </si>
+  <si>
+    <t>Publisher A</t>
+  </si>
+  <si>
+    <t>Publisher B</t>
+  </si>
+  <si>
+    <t>Book C</t>
+  </si>
+  <si>
+    <t>Book D</t>
+  </si>
+  <si>
+    <t>Author E</t>
+  </si>
+  <si>
+    <t>Author F</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>The Publisher database</t>
   </si>
 </sst>
 </file>
@@ -126,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +176,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +221,24 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,26 +246,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8A7A3-F7C6-4382-AAFC-76796D012A00}">
-  <dimension ref="B3:G39"/>
+  <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,325 +709,430 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>12345</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>67890</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="21">
+        <v>2</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="C20" s="13">
         <v>12345</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="D20" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>23456</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E20" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="24">
+        <v>2</v>
+      </c>
+      <c r="C21" s="25">
+        <v>67890</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="26">
+        <v>3</v>
+      </c>
+      <c r="C22" s="15">
+        <v>67890</v>
+      </c>
+      <c r="D22" s="16">
+        <v>2</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="28">
         <v>1</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="C27" s="29">
+        <v>43831</v>
+      </c>
+      <c r="D27" s="13">
         <v>12345</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>23456</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2">
-        <v>23456</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
-        <v>43831</v>
-      </c>
-      <c r="D27">
-        <v>12345</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="E27" s="30">
         <v>5000</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="31">
         <f>E27*E20</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
         <v>2</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="32">
         <v>43831</v>
       </c>
-      <c r="D28">
-        <v>23456</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="15">
+        <v>67890</v>
+      </c>
+      <c r="E28" s="33">
         <v>11</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="34">
         <f>E28*E21</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="35">
+        <f>E22*E28</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="28">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29">
+        <v>43831</v>
+      </c>
+      <c r="D32" s="36">
+        <v>1</v>
+      </c>
+      <c r="E32" s="37">
+        <f>E27*E20</f>
+        <v>600</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="28">
+        <v>2</v>
+      </c>
+      <c r="C33" s="29">
+        <v>43831</v>
+      </c>
+      <c r="D33" s="38">
+        <v>2</v>
+      </c>
+      <c r="E33" s="37">
+        <f>E28*E21</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="21">
+        <v>3</v>
+      </c>
+      <c r="C34" s="32">
+        <v>43831</v>
+      </c>
+      <c r="D34" s="39">
+        <v>3</v>
+      </c>
+      <c r="E34" s="40">
         <f>E28*E22</f>
         <v>0.32999999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>43831</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8">
-        <f>E27*E20</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6">
-        <v>43831</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" s="8">
-        <f>E28*E21</f>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6">
-        <v>43831</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" s="8">
-        <f>E28*E22</f>
-        <v>0.32999999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
-        <v>43831</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="8">
-        <f>SUM(E32:E33)</f>
-        <v>600.54999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
-        <v>43831</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" s="8">
-        <f>E34</f>
-        <v>0.32999999999999996</v>
-      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="D39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
